--- a/biology/Zoologie/Brangas/Brangas.xlsx
+++ b/biology/Zoologie/Brangas/Brangas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brangas est un genre de papillons de la famille des Lycaenidae et de la sous-famille des Theclinae présents en Amérique.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été créé par Jakob Hübner en 1819.
 </t>
@@ -542,19 +556,21 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Brangas caranus (Stoll, [1780]), présent au Surinam et en Guyane.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Brangas caranus (Stoll, ), présent au Surinam et en Guyane.
 Brangas carthaea (Hewitson, 1868), présent au Mexique.
-Brangas coccineifrons (Godman &amp; Salvin, [1887]), présent au Nicaragua et en Colombie.
-Brangas dydimaon (Cramer, [1777]), présent au Brésil, au Surinam, au Guyana et en Guyane.
+Brangas coccineifrons (Godman &amp; Salvin, ), présent au Nicaragua et en Colombie.
+Brangas dydimaon (Cramer, ), présent au Brésil, au Surinam, au Guyana et en Guyane.
 Brangas felderi (Goodson, 1947), présent en Colombie et en Équateur.
 Brangas getus (Fabricius, 1787), présent en Amérique centrale, à Trinité-et-Tobago, au Surinam, au Guyana et en Guyane.
 Brangas neora (Hewitson, 1867), présent au Mexique, au Nicaragua et en Colombie.
 Brangas rita (Goodson, 1845), présent en Colombie.
 Brangas silumena (Hewitson, 1867), présent en Colombie.
 Brangas teucria (Hewitson, 1868),  présent au Brésil et en Guyane.
-Brangas torfrida (Hewitson, 1867),  présent au Brésil et en Guyane[1],[2].</t>
+Brangas torfrida (Hewitson, 1867),  présent au Brésil et en Guyane,.</t>
         </is>
       </c>
     </row>
@@ -582,9 +598,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Brangas sont présents en Amérique centrale et Amérique du Sud[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Brangas sont présents en Amérique centrale et Amérique du Sud.
 Sur les autres projets Wikimedia :
 Brangas, sur Wikimedia CommonsBrangas, sur Wikispecies
 </t>
